--- a/results.xlsx
+++ b/results.xlsx
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+  <si>
+    <t>Configuration</t>
+  </si>
   <si>
     <t>AVG (ms)</t>
   </si>
@@ -78,14 +81,40 @@
   </si>
   <si>
     <t>Pi</t>
+  </si>
+  <si>
+    <t>Hardware platform</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>YMD</t>
+  </si>
+  <si>
+    <t>YMDH</t>
+  </si>
+  <si>
+    <t>YMDHM</t>
+  </si>
+  <si>
+    <t>Total (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -175,7 +204,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,18 +217,32 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -475,55 +518,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="15"/>
+    <col min="6" max="6" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11">
         <v>16.616729999999901</v>
@@ -537,9 +580,12 @@
       <c r="E2" s="7">
         <v>0.99128080303810195</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="16">
+        <f>SUM(C2:E2)</f>
+        <v>1</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="6">
         <v>183.53717789999001</v>
@@ -553,25 +599,33 @@
       <c r="K2" s="7">
         <v>0.88986867013593496</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="18">
+        <f>SUM(I2:K2)</f>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>15.086064998881</v>
+        <v>13.626299926757801</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0928089987771001E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.16478597828307501</v>
+        <v>1.1559060131255501E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.16673113643604001</v>
       </c>
       <c r="E3" s="4">
-        <v>0.82428593172915299</v>
+        <v>0.82170980343270295</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F13" si="0">SUM(C3:E3)</f>
+        <v>0.99999999999999845</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
         <v>183.80565908008501</v>
@@ -585,42 +639,54 @@
       <c r="K3" s="4">
         <v>0.87734598437613498</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L13" si="1">SUM(I3:K3)</f>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>16.602233997802699</v>
+        <v>13.4523439941406</v>
       </c>
       <c r="C4" s="4">
-        <v>3.1347993903729797E-2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.430919927054496</v>
+        <v>2.55436276665892E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.43291981590727402</v>
       </c>
       <c r="E4" s="4">
-        <v>0.537732079041773</v>
+        <v>0.54153655642613496</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999822</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
-        <v>214.18694155997201</v>
+        <v>179.27657841999701</v>
       </c>
       <c r="I4" s="4">
-        <v>4.0465498908682E-2</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0.59462136455902403</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.36491313653229301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6071359486588003E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.63457724086245704</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.329351399650954</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>15.8207240039062</v>
@@ -634,8 +700,12 @@
       <c r="E5" s="4">
         <v>0.98119737337637503</v>
       </c>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <v>182.48388233997301</v>
@@ -649,26 +719,33 @@
       <c r="K5" s="4">
         <v>0.87763939852807205</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>13.9603771908408</v>
+        <v>14.053713996581999</v>
       </c>
       <c r="C6" s="7">
-        <v>1.42334935717333E-4</v>
+        <v>5.3015830002114603E-4</v>
       </c>
       <c r="D6" s="7">
-        <v>2.3310002563046999E-3</v>
+        <v>8.6526098694362195E-3</v>
       </c>
       <c r="E6" s="7">
-        <v>0.99752666480797803</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>0.99081723183054204</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999944</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6">
         <v>154.58518496000201</v>
@@ -682,10 +759,14 @@
       <c r="K6" s="7">
         <v>0.88814775014357294</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>13.418053064463001</v>
@@ -699,8 +780,12 @@
       <c r="E7" s="4">
         <v>0.98019197923939205</v>
       </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999967</v>
+      </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3">
         <v>159.92247770013799</v>
@@ -714,10 +799,14 @@
       <c r="K7" s="4">
         <v>0.61174120071951998</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>13.5389499902343</v>
@@ -731,40 +820,52 @@
       <c r="E8" s="4">
         <v>0.97036002243502895</v>
       </c>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3">
-        <v>181.92907400016699</v>
+        <v>147.85036031999499</v>
       </c>
       <c r="I8" s="4">
-        <v>3.5500756946583098E-2</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.61863746764362404</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.34586177540979202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.9251876877249301E-2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.62169667925556904</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.34905144386718001</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12">
-        <v>30.5390320019531</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="17">
+        <v>12.418927995605401</v>
       </c>
       <c r="C9" s="4">
-        <v>3.7056266803533102E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2.7873229461281599E-2</v>
+        <v>1.11004449610236E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.203143156902551</v>
       </c>
       <c r="E9" s="4">
-        <v>0.96842114385836497</v>
+        <v>0.78575639813642395</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999856</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
         <v>168.180755649948</v>
@@ -778,10 +879,14 @@
       <c r="K9" s="4">
         <v>0.68425640795096498</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
         <v>10.473076364968</v>
@@ -795,9 +900,12 @@
       <c r="E10" s="7">
         <v>0.99985584976270103</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6">
         <v>120.205565639059</v>
@@ -811,10 +919,14 @@
       <c r="K10" s="7">
         <v>0.89529064513814305</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>10.8091591837703</v>
@@ -828,9 +940,12 @@
       <c r="E11" s="10">
         <v>0.98153287861229099</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999967</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9">
         <v>151.39537861541601</v>
@@ -844,26 +959,33 @@
       <c r="K11" s="10">
         <v>0.66224987402045099</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>10.243746000366199</v>
+        <v>9.2443440014648406</v>
       </c>
       <c r="C12" s="10">
-        <v>1.8694168083714199E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.41574059440412597</v>
+        <v>1.7567120046839399E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.43314775855662702</v>
       </c>
       <c r="E12" s="10">
-        <v>0.56556523751215904</v>
-      </c>
-      <c r="F12" s="15"/>
+        <v>0.54928512139653296</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999933</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9">
         <v>152.24681123487801</v>
@@ -877,26 +999,33 @@
       <c r="K12" s="10">
         <v>0.61325007948907195</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>10.1302977548663</v>
+        <v>10.478471999511701</v>
       </c>
       <c r="C13" s="10">
-        <v>8.7158364800042805E-3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.19537517321586201</v>
+        <v>9.0466896939461403E-3</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.19675041105122201</v>
       </c>
       <c r="E13" s="10">
-        <v>0.79590899030413298</v>
-      </c>
-      <c r="F13" s="15"/>
+        <v>0.79420289925483101</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="9">
         <v>135.189422041694</v>
@@ -909,6 +1038,164 @@
       </c>
       <c r="K13" s="10">
         <v>0.73963446421266199</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10.107901999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>13.055520999999899</v>
+      </c>
+      <c r="E16" s="6">
+        <v>16.462184999999899</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9">
+        <v>10.323919999999999</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.21106264691899501</v>
+      </c>
+      <c r="J16" s="9">
+        <v>48.914008000488202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18.548999999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>29.532</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43.642000000000003</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10.72983</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.20668634562499599</v>
+      </c>
+      <c r="J17" s="9">
+        <v>51.9135890063476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8.4949999999999992</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.6470000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10.746</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10.19089</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.21695821718156599</v>
+      </c>
+      <c r="J18" s="9">
+        <v>46.971671008300703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6">
+        <v>119.319792999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>142.379301</v>
+      </c>
+      <c r="E19" s="6">
+        <v>174.28582499999999</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>166.69499999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>194.107</v>
+      </c>
+      <c r="E20" s="3">
+        <v>278.74299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>109.754</v>
+      </c>
+      <c r="D21" s="3">
+        <v>109.786</v>
+      </c>
+      <c r="E21" s="3">
+        <v>133.161</v>
       </c>
     </row>
   </sheetData>
